--- a/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8272</v>
+        <v>8286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22476</v>
+        <v>22799</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03928083571658694</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02216537886471753</v>
+        <v>0.02220300797804838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0602281455554092</v>
+        <v>0.06109150273200794</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>25311</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16338</v>
+        <v>16797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36248</v>
+        <v>37153</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04306495600162574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02779835254927564</v>
+        <v>0.02857831970635666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06167198818097604</v>
+        <v>0.063212156326275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -786,19 +786,19 @@
         <v>39971</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29235</v>
+        <v>28644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54269</v>
+        <v>53574</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04159535926899692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03042309399991237</v>
+        <v>0.02980879344295982</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05647548411881772</v>
+        <v>0.05575209557614291</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>358530</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350713</v>
+        <v>350390</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>364917</v>
+        <v>364903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9607191642834131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9397718544445909</v>
+        <v>0.9389084972679917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9778346211352825</v>
+        <v>0.9777969920219515</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>550</v>
@@ -836,19 +836,19 @@
         <v>562438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>551501</v>
+        <v>550596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>571411</v>
+        <v>570952</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9569350439983743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9383280118190241</v>
+        <v>0.9367878436737248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9722016474507249</v>
+        <v>0.9714216802936432</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>933</v>
@@ -857,19 +857,19 @@
         <v>920967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>906669</v>
+        <v>907364</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>931703</v>
+        <v>932294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9584046407310031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.943524515881181</v>
+        <v>0.9442479044238571</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9695769060000876</v>
+        <v>0.9701912065570402</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7308</v>
+        <v>6953</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03303041069079647</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1174710433412393</v>
+        <v>0.1117558247251024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -1003,19 +1003,19 @@
         <v>2864</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7547</v>
+        <v>9059</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01905849642979138</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005336506124961601</v>
+        <v>0.005418732092733546</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05021620104931968</v>
+        <v>0.06027509869026391</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>87273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>88083</v>
@@ -1041,7 +1041,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>60157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54904</v>
+        <v>55259</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>62212</v>
@@ -1062,7 +1062,7 @@
         <v>0.9669695893092035</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8825289566587607</v>
+        <v>0.8882441752748973</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>147431</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142748</v>
+        <v>141236</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>149493</v>
+        <v>149481</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9809415035702086</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9497837989506803</v>
+        <v>0.9397249013097377</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9946634938750384</v>
+        <v>0.9945812679072665</v>
       </c>
     </row>
     <row r="9">
@@ -1347,19 +1347,19 @@
         <v>15469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9177</v>
+        <v>9901</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24451</v>
+        <v>24848</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03078553080878009</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01826391542892521</v>
+        <v>0.01970541533937428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04866117329393109</v>
+        <v>0.0494528093214738</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1368,19 +1368,19 @@
         <v>27366</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17552</v>
+        <v>18554</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38695</v>
+        <v>40174</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04043231174706541</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02593164612697657</v>
+        <v>0.02741279307595707</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05716940224508994</v>
+        <v>0.05935484914251669</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1389,19 +1389,19 @@
         <v>42835</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31236</v>
+        <v>31094</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57154</v>
+        <v>57075</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03632212215309295</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02648636264773876</v>
+        <v>0.02636632816137748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04846369327719988</v>
+        <v>0.04839666032135107</v>
       </c>
     </row>
     <row r="14">
@@ -1418,19 +1418,19 @@
         <v>486997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>478015</v>
+        <v>477618</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>493289</v>
+        <v>492565</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9692144691912199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.951338826706069</v>
+        <v>0.9505471906785258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9817360845710749</v>
+        <v>0.9802945846606257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>635</v>
@@ -1439,19 +1439,19 @@
         <v>649476</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>638147</v>
+        <v>636668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>659290</v>
+        <v>658288</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9595676882529346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9428305977549101</v>
+        <v>0.9406451508574833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9740683538730235</v>
+        <v>0.972587206924043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1141</v>
@@ -1460,19 +1460,19 @@
         <v>1136473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1122154</v>
+        <v>1122233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1148072</v>
+        <v>1148214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9636778778469071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9515363067228009</v>
+        <v>0.9516033396786487</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9735136373522614</v>
+        <v>0.9736336718386225</v>
       </c>
     </row>
     <row r="15">
@@ -1803,19 +1803,19 @@
         <v>28858</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19375</v>
+        <v>19006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41543</v>
+        <v>40328</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0696383656072765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04675415352835108</v>
+        <v>0.04586304786511573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1002496056901697</v>
+        <v>0.09731690606468131</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -1824,19 +1824,19 @@
         <v>71042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56236</v>
+        <v>55070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90369</v>
+        <v>90732</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1119573282837842</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08862398405176813</v>
+        <v>0.08678672525940456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1424152119441439</v>
+        <v>0.1429874587922359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -1845,19 +1845,19 @@
         <v>99900</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80815</v>
+        <v>81802</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122432</v>
+        <v>122533</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09523869493338118</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07704388310248671</v>
+        <v>0.07798502638576831</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1167194347850839</v>
+        <v>0.1168157517439398</v>
       </c>
     </row>
     <row r="5">
@@ -1874,19 +1874,19 @@
         <v>385540</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372855</v>
+        <v>374070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395023</v>
+        <v>395392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9303616343927235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8997503943098303</v>
+        <v>0.9026830939353186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9532458464716489</v>
+        <v>0.9541369521348843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>532</v>
@@ -1895,19 +1895,19 @@
         <v>563503</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>544176</v>
+        <v>543813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>578309</v>
+        <v>579475</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8880426717162158</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.857584788055856</v>
+        <v>0.857012541207764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9113760159482318</v>
+        <v>0.9132132747405954</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>885</v>
@@ -1916,19 +1916,19 @@
         <v>949042</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>926510</v>
+        <v>926409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>968127</v>
+        <v>967140</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9047613050666188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.883280565214916</v>
+        <v>0.8831842482560602</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9229561168975133</v>
+        <v>0.9220149736142317</v>
       </c>
     </row>
     <row r="6">
@@ -2020,19 +2020,19 @@
         <v>6135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2847</v>
+        <v>2187</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13184</v>
+        <v>12585</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0517010413280371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02398860085194182</v>
+        <v>0.01843261593030782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1110985328934547</v>
+        <v>0.1060583257396203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2041,19 +2041,19 @@
         <v>4380</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1086</v>
+        <v>1115</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10530</v>
+        <v>10441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05272937270429535</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0130715051464746</v>
+        <v>0.01341999961047814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1267510914305437</v>
+        <v>0.1256887855054913</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2062,19 +2062,19 @@
         <v>10516</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4981</v>
+        <v>5236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18245</v>
+        <v>18583</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05212449917159306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02469051012802602</v>
+        <v>0.02595457236116873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09043787578226226</v>
+        <v>0.09211331094582603</v>
       </c>
     </row>
     <row r="8">
@@ -2091,19 +2091,19 @@
         <v>112530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>105481</v>
+        <v>106080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>115818</v>
+        <v>116478</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9482989586719629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8889014671065454</v>
+        <v>0.8939416742603791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9760113991480583</v>
+        <v>0.9815673840696921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -2112,19 +2112,19 @@
         <v>78694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72544</v>
+        <v>72633</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81988</v>
+        <v>81959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9472706272957047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8732489085694563</v>
+        <v>0.8743112144945089</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9869284948535253</v>
+        <v>0.986580000389522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>172</v>
@@ -2133,19 +2133,19 @@
         <v>191223</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>183494</v>
+        <v>183156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>196758</v>
+        <v>196503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.947875500828407</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9095621242177376</v>
+        <v>0.9078866890541738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.975309489871974</v>
+        <v>0.9740454276388313</v>
       </c>
     </row>
     <row r="9">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5849</v>
+        <v>5786</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02252260375132108</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1198099895343084</v>
+        <v>0.1185091255341594</v>
       </c>
     </row>
     <row r="11">
@@ -2313,7 +2313,7 @@
         <v>21146</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15945</v>
+        <v>15417</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>22246</v>
@@ -2322,7 +2322,7 @@
         <v>0.9505723444543134</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7167562715227499</v>
+        <v>0.6930418457387111</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>47721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42972</v>
+        <v>43035</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>48821</v>
@@ -2343,7 +2343,7 @@
         <v>0.9774773962486789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8801900104656916</v>
+        <v>0.8814908744658403</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -2438,19 +2438,19 @@
         <v>34993</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24613</v>
+        <v>23993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48171</v>
+        <v>47952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06252815223136708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04398036274270583</v>
+        <v>0.04287187923239322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08607469512090239</v>
+        <v>0.08568457827733147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -2459,19 +2459,19 @@
         <v>76522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59512</v>
+        <v>61533</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95718</v>
+        <v>96276</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.103426906037151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0804365795373536</v>
+        <v>0.08316843681731173</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1293726141457094</v>
+        <v>0.1301258661117899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -2480,19 +2480,19 @@
         <v>111515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90742</v>
+        <v>93376</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133987</v>
+        <v>135533</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08581365295166583</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06982805707985525</v>
+        <v>0.07185522208091705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1031062006167679</v>
+        <v>0.1042959462828045</v>
       </c>
     </row>
     <row r="14">
@@ -2509,19 +2509,19 @@
         <v>524644</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>511466</v>
+        <v>511685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>535024</v>
+        <v>535644</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9374718477686329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9139253048790973</v>
+        <v>0.9143154217226689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9560196372572941</v>
+        <v>0.9571281207676069</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>622</v>
@@ -2530,19 +2530,19 @@
         <v>663343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>644147</v>
+        <v>643589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>680353</v>
+        <v>678332</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.896573093962849</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8706273858542907</v>
+        <v>0.8698741338882098</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9195634204626464</v>
+        <v>0.9168315631826877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1095</v>
@@ -2551,19 +2551,19 @@
         <v>1187987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1165515</v>
+        <v>1163969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1208760</v>
+        <v>1206126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9141863470483341</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8968937993832321</v>
+        <v>0.8957040537171955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9301719429201447</v>
+        <v>0.928144777919083</v>
       </c>
     </row>
     <row r="15">
@@ -2894,19 +2894,19 @@
         <v>19014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11755</v>
+        <v>12861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28521</v>
+        <v>28926</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05372798008963194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03321426078434954</v>
+        <v>0.03634156248272105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08058956117045464</v>
+        <v>0.08173428696978924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -2915,19 +2915,19 @@
         <v>45766</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31975</v>
+        <v>33737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61077</v>
+        <v>61760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08249730350860085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05763752543299683</v>
+        <v>0.06081348201412855</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1100967303588437</v>
+        <v>0.1113284463706364</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -2936,19 +2936,19 @@
         <v>64780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49283</v>
+        <v>48907</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83054</v>
+        <v>81636</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07129231509033881</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05423748364825538</v>
+        <v>0.05382287427660828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09140336254210449</v>
+        <v>0.08984239853101639</v>
       </c>
     </row>
     <row r="5">
@@ -2965,19 +2965,19 @@
         <v>334887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>325380</v>
+        <v>324975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>342146</v>
+        <v>341040</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.946272019910368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9194104388295457</v>
+        <v>0.9182657130302113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9667857392156507</v>
+        <v>0.963658437517279</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>435</v>
@@ -2986,19 +2986,19 @@
         <v>508991</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>493680</v>
+        <v>492997</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>522782</v>
+        <v>521020</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9175026964913992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8899032696411563</v>
+        <v>0.8886715536293637</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9423624745670032</v>
+        <v>0.939186517985872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>800</v>
@@ -3007,19 +3007,19 @@
         <v>843878</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>825604</v>
+        <v>827022</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>859375</v>
+        <v>859751</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9287076849096612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9085966374578958</v>
+        <v>0.9101576014689836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9457625163517449</v>
+        <v>0.9461771257233919</v>
       </c>
     </row>
     <row r="6">
@@ -3111,19 +3111,19 @@
         <v>2828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7798</v>
+        <v>8003</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01468659595201361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004589495165950434</v>
+        <v>0.00464648448099921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04049983689984655</v>
+        <v>0.04156911246229408</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3132,19 +3132,19 @@
         <v>7640</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2211</v>
+        <v>2356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16615</v>
+        <v>17066</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04062287004819481</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01175626722015482</v>
+        <v>0.01252550362962014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08834098224625948</v>
+        <v>0.09074001994919076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -3153,19 +3153,19 @@
         <v>10468</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4611</v>
+        <v>4499</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19668</v>
+        <v>20669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02750283875747455</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01211490320511498</v>
+        <v>0.01182192608429741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05167486567829558</v>
+        <v>0.05430549048441786</v>
       </c>
     </row>
     <row r="8">
@@ -3182,19 +3182,19 @@
         <v>189704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>184734</v>
+        <v>184529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>191648</v>
+        <v>191637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9853134040479864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9595001631001533</v>
+        <v>0.9584308875377058</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9954105048340496</v>
+        <v>0.9953535155190009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>152</v>
@@ -3203,19 +3203,19 @@
         <v>180434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>171459</v>
+        <v>171008</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>185863</v>
+        <v>185718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9593771299518052</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9116590177537404</v>
+        <v>0.9092599800508093</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9882437327798451</v>
+        <v>0.9874744963703799</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>346</v>
@@ -3224,19 +3224,19 @@
         <v>370138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>360938</v>
+        <v>359937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>375995</v>
+        <v>376107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9724971612425255</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9483251343217044</v>
+        <v>0.9456945095155818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9878850967948855</v>
+        <v>0.9881780739157026</v>
       </c>
     </row>
     <row r="9">
@@ -3497,19 +3497,19 @@
         <v>21842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14704</v>
+        <v>14466</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31869</v>
+        <v>31569</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03711713690241765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02498724496108676</v>
+        <v>0.02458280257351157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05415571444847728</v>
+        <v>0.05364573132836375</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -3518,19 +3518,19 @@
         <v>53406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37658</v>
+        <v>39471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70334</v>
+        <v>72063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06877747630343571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04849688371883751</v>
+        <v>0.05083197969059159</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09057758237240113</v>
+        <v>0.09280412619332247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -3539,19 +3539,19 @@
         <v>75248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57909</v>
+        <v>59120</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95890</v>
+        <v>95954</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05512812050414632</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04242497760875759</v>
+        <v>0.0433123340377344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07025046157384039</v>
+        <v>0.07029731601003746</v>
       </c>
     </row>
     <row r="14">
@@ -3568,19 +3568,19 @@
         <v>566621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>556594</v>
+        <v>556894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>573759</v>
+        <v>573997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9628828630975823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9458442855515228</v>
+        <v>0.9463542686716363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9750127550389133</v>
+        <v>0.9754171974264884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>613</v>
@@ -3589,19 +3589,19 @@
         <v>723099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706171</v>
+        <v>704442</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>738847</v>
+        <v>737034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9312225236965643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9094224176275989</v>
+        <v>0.9071958738066775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9515031162811625</v>
+        <v>0.9491680203094085</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1213</v>
@@ -3610,19 +3610,19 @@
         <v>1289720</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269078</v>
+        <v>1269014</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1307059</v>
+        <v>1305848</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9448718794958537</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9297495384261596</v>
+        <v>0.9297026839899625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9575750223912425</v>
+        <v>0.9566876659622656</v>
       </c>
     </row>
     <row r="15">
@@ -3953,19 +3953,19 @@
         <v>22716</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16264</v>
+        <v>15668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30710</v>
+        <v>31136</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0783047284937857</v>
+        <v>0.07830472849378574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05606508978971628</v>
+        <v>0.05401017826279924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1058609666018182</v>
+        <v>0.1073286500804309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -3974,19 +3974,19 @@
         <v>75143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64277</v>
+        <v>63993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89581</v>
+        <v>88386</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1395659086481594</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1193850285443964</v>
+        <v>0.1188562451222608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1663834788736958</v>
+        <v>0.1641637148511422</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -3995,19 +3995,19 @@
         <v>97859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83778</v>
+        <v>84617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112809</v>
+        <v>112125</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1181155614781674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1011201545660446</v>
+        <v>0.1021334506918035</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1361603255280998</v>
+        <v>0.1353350046088516</v>
       </c>
     </row>
     <row r="5">
@@ -4024,19 +4024,19 @@
         <v>267379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259385</v>
+        <v>258959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>273831</v>
+        <v>274427</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.921695271506214</v>
+        <v>0.9216952715062143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8941390333981821</v>
+        <v>0.8926713499195689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9439349102102838</v>
+        <v>0.9459898217372009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>875</v>
@@ -4045,19 +4045,19 @@
         <v>463260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>448822</v>
+        <v>450017</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>474126</v>
+        <v>474410</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8604340913518403</v>
+        <v>0.8604340913518405</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.833616521126304</v>
+        <v>0.8358362851488579</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8806149714556034</v>
+        <v>0.8811437548777393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1266</v>
@@ -4066,19 +4066,19 @@
         <v>730639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>715689</v>
+        <v>716373</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>744720</v>
+        <v>743881</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8818844385218327</v>
+        <v>0.8818844385218325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8638396744719004</v>
+        <v>0.8646649953911488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8988798454339556</v>
+        <v>0.8978665493081964</v>
       </c>
     </row>
     <row r="6">
@@ -4170,19 +4170,19 @@
         <v>9658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5360</v>
+        <v>5391</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16498</v>
+        <v>15823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0317888934412641</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01764197381843951</v>
+        <v>0.0177426148818129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05429969761276805</v>
+        <v>0.05207785190134461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -4191,19 +4191,19 @@
         <v>12141</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8084</v>
+        <v>8077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18394</v>
+        <v>18267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04372663068267978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02911640939821935</v>
+        <v>0.02909233648121345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06625130679658885</v>
+        <v>0.06579349557905632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -4212,19 +4212,19 @@
         <v>21799</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15594</v>
+        <v>14991</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30224</v>
+        <v>29748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03748902785663454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0268183923725864</v>
+        <v>0.0257807054713543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05197795410496733</v>
+        <v>0.051160453903691</v>
       </c>
     </row>
     <row r="8">
@@ -4241,19 +4241,19 @@
         <v>294167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>287327</v>
+        <v>288002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298465</v>
+        <v>298434</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9682111065587358</v>
+        <v>0.968211106558736</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9457003023872318</v>
+        <v>0.9479221480986553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9823580261815602</v>
+        <v>0.9822573851181872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>505</v>
@@ -4262,19 +4262,19 @@
         <v>265505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>259252</v>
+        <v>259379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>269562</v>
+        <v>269569</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9562733693173203</v>
+        <v>0.9562733693173201</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9337486932034116</v>
+        <v>0.9342065044209436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9708835906017805</v>
+        <v>0.9709076635187865</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>917</v>
@@ -4283,19 +4283,19 @@
         <v>559672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>551247</v>
+        <v>551723</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>565877</v>
+        <v>566480</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9625109721433653</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9480220458950327</v>
+        <v>0.948839546096309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9731816076274136</v>
+        <v>0.9742192945286456</v>
       </c>
     </row>
     <row r="9">
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3876</v>
+        <v>4309</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01060060533503513</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03260097411227634</v>
+        <v>0.03625004747525151</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4374</v>
+        <v>4402</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00624682200629752</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02168381063219725</v>
+        <v>0.02182065532980606</v>
       </c>
     </row>
     <row r="11">
@@ -4450,7 +4450,7 @@
         <v>117621</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115005</v>
+        <v>114572</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>118881</v>
@@ -4459,7 +4459,7 @@
         <v>0.989399394664965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9673990258877238</v>
+        <v>0.9637499525247488</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -4484,7 +4484,7 @@
         <v>200476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>197362</v>
+        <v>197334</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>201736</v>
@@ -4493,7 +4493,7 @@
         <v>0.9937531779937026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9783161893678024</v>
+        <v>0.978179344670194</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -4588,19 +4588,19 @@
         <v>33634</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25546</v>
+        <v>24860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44751</v>
+        <v>44335</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04718608372423453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03583823690154147</v>
+        <v>0.03487690365961682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06278215220303628</v>
+        <v>0.06219771221794872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -4609,19 +4609,19 @@
         <v>87283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74837</v>
+        <v>74995</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101106</v>
+        <v>101817</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09709959784222312</v>
+        <v>0.09709959784222309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0832538962725459</v>
+        <v>0.08342932878639958</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1124767800611788</v>
+        <v>0.1132679138054486</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>220</v>
@@ -4630,19 +4630,19 @@
         <v>120917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106964</v>
+        <v>102431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137788</v>
+        <v>136178</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07502458403928541</v>
+        <v>0.07502458403928543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06636684554797219</v>
+        <v>0.0635544006054993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0854923540160835</v>
+        <v>0.08449342562051269</v>
       </c>
     </row>
     <row r="14">
@@ -4659,19 +4659,19 @@
         <v>679167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>668050</v>
+        <v>668466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>687255</v>
+        <v>687941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9528139162757654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9372178477969637</v>
+        <v>0.9378022877820515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9641617630984587</v>
+        <v>0.9651230963403833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1532</v>
@@ -4680,19 +4680,19 @@
         <v>811621</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>797798</v>
+        <v>797087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>824067</v>
+        <v>823909</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.902900402157777</v>
+        <v>0.9029004021577769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8875232199388212</v>
+        <v>0.8867320861945516</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9167461037274539</v>
+        <v>0.9165706712136006</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2501</v>
@@ -4701,19 +4701,19 @@
         <v>1490788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1473917</v>
+        <v>1475527</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1504741</v>
+        <v>1509274</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9249754159607146</v>
+        <v>0.9249754159607149</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9145076459839167</v>
+        <v>0.9155065743794873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.933633154452028</v>
+        <v>0.9364455993945007</v>
       </c>
     </row>
     <row r="15">
